--- a/PCB/AtoVproject 16n V1.1 BOM1.xlsx
+++ b/PCB/AtoVproject 16n V1.1 BOM1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthwork\Google Drive\eagle online\16n AtoV rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93002506-FCC7-4E06-8B28-7F1AC0901A64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CC6A66-236D-4122-9A7D-66FE0E93D9C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="AtoVproject 16n V1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
   <si>
     <t>Qty</t>
   </si>
@@ -134,9 +133,6 @@
   </si>
   <si>
     <t>10n</t>
-  </si>
-  <si>
-    <t>C1, C3</t>
   </si>
   <si>
     <t>1K</t>
@@ -447,6 +443,15 @@
   </si>
   <si>
     <t xml:space="preserve">	652-PTA60432015DPB10</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C3</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1011,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1029,13 +1034,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,6 +1051,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1402,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1440,16 +1454,16 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1471,13 +1485,13 @@
         <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -1486,7 +1500,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>29</v>
@@ -1495,13 +1509,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -1519,13 +1533,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -1534,7 +1548,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>29</v>
@@ -1543,16 +1557,16 @@
         <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="43" x14ac:dyDescent="0.5">
@@ -1575,10 +1589,10 @@
         <v>31</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
@@ -1586,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>29</v>
@@ -1595,13 +1609,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1610,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>29</v>
@@ -1619,13 +1633,13 @@
         <v>30</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43" x14ac:dyDescent="0.5">
@@ -1633,25 +1647,25 @@
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1662,7 +1676,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>34</v>
@@ -1674,7 +1688,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>27</v>
@@ -1705,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
@@ -1714,257 +1728,257 @@
         <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A17" s="10">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A19" s="4">
+      <c r="G18" s="11"/>
+      <c r="H18" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A20" s="4">
         <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A20" s="4">
-        <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A22" s="7">
         <v>1</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="H21" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A23" s="4">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="F22" s="7"/>
+      <c r="H22" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A24" s="4">
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A27" s="4">
-        <v>1</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A28" s="7">
-        <v>1</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.5">
@@ -1972,190 +1986,210 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A30" s="7">
+        <v>1</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A30" s="4">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="E31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="43" x14ac:dyDescent="0.5">
-      <c r="A32" s="7">
-        <v>16</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="G31" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="43" x14ac:dyDescent="0.5">
       <c r="A33" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="H33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="43" x14ac:dyDescent="0.5">
       <c r="A34" s="7">
+        <v>2</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43" x14ac:dyDescent="0.5">
+      <c r="A35" s="7">
         <v>16</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A35" s="7">
-        <v>1</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A37" s="7">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="F37" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A37" s="7">
+      <c r="G37" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A38" s="7">
         <v>1</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>110</v>
+      <c r="H38" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
